--- a/張樂安_SQL評量_正規化題目.xlsx
+++ b/張樂安_SQL評量_正規化題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC45C6-E4A5-43AA-B041-9C2C5A155862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C823CC9-1FCA-4B2F-835B-5640C8997D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -1960,10 +1960,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>037-472735</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1977,6 +1973,311 @@
   </si>
   <si>
     <t>shelter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(2,0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮公義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮竹南里中山路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 103 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮山佳里國光街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後龍鎮埔頂里中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>136-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗市綠苗里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 766 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民族里民族路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝里光大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>信義里信義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>巷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2079,7 +2380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2087,13 +2388,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2121,71 +2502,155 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2503,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2520,7 +2985,7 @@
     <col min="9" max="9" width="22.375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2733,7 +3198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
+    <row r="7" spans="1:12" ht="47.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2924,10 +3389,10 @@
       <c r="E14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="11" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -2956,8 +3421,8 @@
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
+      <c r="D15" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -2994,8 +3459,8 @@
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
+      <c r="D16" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -3032,8 +3497,8 @@
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
+      <c r="D17" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
@@ -3070,8 +3535,8 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
+      <c r="D18" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -3108,8 +3573,8 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>40</v>
+      <c r="D19" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>41</v>
@@ -3146,8 +3611,8 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
+      <c r="D20" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>41</v>
@@ -3260,8 +3725,8 @@
       <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>49</v>
+      <c r="D23" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>50</v>
@@ -3298,8 +3763,8 @@
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
+      <c r="D24" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -3374,8 +3839,8 @@
       <c r="C26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>64</v>
+      <c r="D26" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
@@ -3403,601 +3868,632 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="E28" s="28" t="s">
+      <c r="B28" s="40"/>
+      <c r="E28" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" s="9" customFormat="1">
+      <c r="A29" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:12" s="9" customFormat="1">
+      <c r="A30" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" s="9" customFormat="1">
+      <c r="A31" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="1:12" s="9" customFormat="1">
+      <c r="A32" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="1:12" s="9" customFormat="1">
+      <c r="A33" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="58"/>
+    </row>
+    <row r="34" spans="1:12" s="9" customFormat="1">
+      <c r="A34" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="9" customFormat="1"/>
+    <row r="36" spans="1:12" s="9" customFormat="1">
+      <c r="A36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="30"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1">
-      <c r="A29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" s="11" customFormat="1">
-      <c r="A30" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:12" s="11" customFormat="1">
-      <c r="A31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:12" s="11" customFormat="1">
-      <c r="A32" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:12" s="11" customFormat="1">
-      <c r="A33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:12" s="11" customFormat="1">
-      <c r="A34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="11" customFormat="1"/>
-    <row r="36" spans="1:12" s="11" customFormat="1">
-      <c r="A36" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="E36" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:12" s="11" customFormat="1">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:12" s="9" customFormat="1">
+      <c r="A37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="16" t="s">
         <v>120</v>
       </c>
       <c r="H37" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="J37" s="26" t="s">
+      <c r="I37" s="27"/>
+      <c r="J37" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>7</v>
+      <c r="L37" s="29" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="9" customFormat="1">
+      <c r="A39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="21">
+        <v>100</v>
+      </c>
+      <c r="K39" s="21">
+        <v>1</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="9" customFormat="1">
+      <c r="A40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>104</v>
+      <c r="D40" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="21">
+        <v>3142</v>
+      </c>
+      <c r="K40" s="21">
+        <v>1</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="11" customFormat="1">
-      <c r="A39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="11" t="s">
+    <row r="41" spans="1:12" s="9" customFormat="1">
+      <c r="A41" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="21">
+        <v>1072</v>
+      </c>
+      <c r="K41" s="21">
+        <v>1</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="9" customFormat="1">
+      <c r="A42" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="34">
+        <v>32</v>
+      </c>
+      <c r="K42" s="21">
+        <v>1</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="9" customFormat="1">
+      <c r="A43" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="18" t="s">
+      <c r="G43" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="35">
         <v>106</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="13">
-        <v>100</v>
-      </c>
-      <c r="K39" s="13">
+      <c r="K43" s="21">
         <v>1</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>17</v>
+      <c r="L43" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="11" customFormat="1">
-      <c r="A40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="11" t="s">
+    <row r="44" spans="1:12" s="9" customFormat="1">
+      <c r="A44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="32"/>
+      <c r="J44" s="35">
+        <v>26</v>
+      </c>
+      <c r="K44" s="21">
+        <v>1</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="9" customFormat="1">
+      <c r="A45" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="13">
-        <v>3142</v>
-      </c>
-      <c r="K40" s="13">
+      <c r="G45" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="35">
+        <v>2038</v>
+      </c>
+      <c r="K45" s="21">
+        <v>2</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="9" customFormat="1">
+      <c r="A46" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I46" s="32"/>
+      <c r="J46" s="35">
+        <v>128</v>
+      </c>
+      <c r="K46" s="21">
+        <v>2</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="9" customFormat="1">
+      <c r="E47" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="32"/>
+      <c r="J47" s="34">
+        <v>353</v>
+      </c>
+      <c r="K47" s="21">
         <v>1</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>17</v>
+      <c r="L47" s="33" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="11" customFormat="1">
-      <c r="A41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="13">
-        <v>1072</v>
-      </c>
-      <c r="K41" s="13">
+    <row r="48" spans="1:12" s="9" customFormat="1">
+      <c r="E48" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="21">
+        <v>501</v>
+      </c>
+      <c r="K48" s="21">
         <v>1</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>17</v>
+      <c r="L48" s="33" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="11" customFormat="1">
-      <c r="A42" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="29">
-        <v>32</v>
-      </c>
-      <c r="K42" s="13">
+    <row r="49" spans="5:12" s="9" customFormat="1">
+      <c r="E49" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="32"/>
+      <c r="J49" s="21">
+        <v>194</v>
+      </c>
+      <c r="K49" s="21">
         <v>1</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>17</v>
+      <c r="L49" s="33" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="11" customFormat="1">
-      <c r="A43" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="14">
-        <v>106</v>
-      </c>
-      <c r="K43" s="13">
+    <row r="50" spans="5:12" s="9" customFormat="1">
+      <c r="E50" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="37"/>
+      <c r="J50" s="23">
+        <v>78</v>
+      </c>
+      <c r="K50" s="23">
         <v>1</v>
       </c>
-      <c r="L43" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="11" customFormat="1">
-      <c r="A44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="14">
-        <v>26</v>
-      </c>
-      <c r="K44" s="13">
-        <v>1</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="11" customFormat="1">
-      <c r="A45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="14">
-        <v>2038</v>
-      </c>
-      <c r="K45" s="13">
-        <v>2</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="11" customFormat="1">
-      <c r="A46" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="14">
-        <v>128</v>
-      </c>
-      <c r="K46" s="13">
-        <v>2</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="11" customFormat="1">
-      <c r="E47" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="29">
-        <v>353</v>
-      </c>
-      <c r="K47" s="13">
-        <v>1</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="11" customFormat="1">
-      <c r="E48" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="13">
-        <v>501</v>
-      </c>
-      <c r="K48" s="13">
-        <v>1</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" s="11" customFormat="1">
-      <c r="E49" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="13">
-        <v>194</v>
-      </c>
-      <c r="K49" s="13">
-        <v>1</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12" s="11" customFormat="1">
-      <c r="E50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="13">
-        <v>78</v>
-      </c>
-      <c r="K50" s="13">
-        <v>1</v>
-      </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="38" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
+  <mergeCells count="23">
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H43:I43"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
     <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/張樂安_SQL評量_正規化題目.xlsx
+++ b/張樂安_SQL評量_正規化題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C823CC9-1FCA-4B2F-835B-5640C8997D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176502E-F499-44FC-B26E-FCAB41227D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -2278,6 +2278,10 @@
       </rPr>
       <t>號</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2474,7 +2478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2511,6 +2515,102 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,100 +2620,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2623,33 +2645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2968,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:I29"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3868,609 +3863,616 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="E28" s="47" t="s">
+      <c r="B28" s="48"/>
+      <c r="E28" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:12" s="9" customFormat="1">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="53"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:12" s="9" customFormat="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H30" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="54"/>
+      <c r="H30" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:12" s="9" customFormat="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="56"/>
+      <c r="I31" s="41"/>
     </row>
     <row r="32" spans="1:12" s="9" customFormat="1">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="56"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" spans="1:12" s="9" customFormat="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="58"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:12" s="9" customFormat="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="34" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1"/>
     <row r="36" spans="1:12" s="9" customFormat="1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" s="9" customFormat="1">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28" t="s">
+      <c r="I37" s="49"/>
+      <c r="J37" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L37" s="29" t="s">
+      <c r="L37" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="18" t="s">
+      <c r="I38" s="39"/>
+      <c r="J38" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="32" t="s">
+      <c r="H39" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="21">
+      <c r="I39" s="37"/>
+      <c r="J39" s="18">
         <v>100</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="18">
         <v>1</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="9" customFormat="1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="21">
+      <c r="I40" s="37"/>
+      <c r="J40" s="18">
         <v>3142</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="18">
         <v>1</v>
       </c>
-      <c r="L40" s="33" t="s">
+      <c r="L40" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="9" customFormat="1">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="21">
+      <c r="I41" s="37"/>
+      <c r="J41" s="18">
         <v>1072</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="18">
         <v>1</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="L41" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="34">
+      <c r="I42" s="37"/>
+      <c r="J42" s="25">
         <v>32</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="18">
         <v>1</v>
       </c>
-      <c r="L42" s="33" t="s">
+      <c r="L42" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="35">
+      <c r="I43" s="37"/>
+      <c r="J43" s="26">
         <v>106</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="18">
         <v>1</v>
       </c>
-      <c r="L43" s="33" t="s">
+      <c r="L43" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="31" t="s">
+      <c r="F44" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="35">
+      <c r="I44" s="37"/>
+      <c r="J44" s="26">
         <v>26</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="18">
         <v>1</v>
       </c>
-      <c r="L44" s="33" t="s">
+      <c r="L44" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="35">
+      <c r="I45" s="37"/>
+      <c r="J45" s="26">
         <v>2038</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="18">
         <v>2</v>
       </c>
-      <c r="L45" s="33" t="s">
+      <c r="L45" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="35">
+      <c r="I46" s="37"/>
+      <c r="J46" s="26">
         <v>128</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="18">
         <v>2</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="9" customFormat="1">
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="31" t="s">
+      <c r="F47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34">
+      <c r="I47" s="37"/>
+      <c r="J47" s="25">
         <v>353</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="18">
         <v>1</v>
       </c>
-      <c r="L47" s="33" t="s">
+      <c r="L47" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="9" customFormat="1">
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="32"/>
-      <c r="J48" s="21">
+      <c r="I48" s="37"/>
+      <c r="J48" s="18">
         <v>501</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="18">
         <v>1</v>
       </c>
-      <c r="L48" s="33" t="s">
+      <c r="L48" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="5:12" s="9" customFormat="1">
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="31" t="s">
+      <c r="F49" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="21">
+      <c r="I49" s="37"/>
+      <c r="J49" s="18">
         <v>194</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="18">
         <v>1</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="5:12" s="9" customFormat="1">
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="23">
+      <c r="I50" s="38"/>
+      <c r="J50" s="20">
         <v>78</v>
       </c>
-      <c r="K50" s="23">
+      <c r="K50" s="20">
         <v>1</v>
       </c>
-      <c r="L50" s="38" t="s">
+      <c r="L50" s="28" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H50:I50"/>
@@ -4487,15 +4489,9 @@
     <mergeCell ref="E36:L36"/>
     <mergeCell ref="H48:I48"/>
     <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>